--- a/DarkDice/Assets/Scritable/Excel/DataTable_Test.xlsx
+++ b/DarkDice/Assets/Scritable/Excel/DataTable_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kmk\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\만두~\게임 프로젝트\4) 2023.10 ~ 2023.12 인턴 프로젝트\DarkDice\DarkDice\Assets\Scritable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F329926-4D05-40E6-818B-A561407480AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C2CAFD-0786-4C49-806E-E0F088B11033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11856" yWindow="2316" windowWidth="24156" windowHeight="16284" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="855" activeTab="3" xr2:uid="{DC7D0983-50F2-4F61-969D-F2D36E7CA138}"/>
   </bookViews>
   <sheets>
     <sheet name="정의" sheetId="8" r:id="rId1"/>
@@ -1583,10 +1583,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1601,72 +1601,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="70">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2241,6 +2175,72 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4700,7 +4700,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="몬스터"/>
@@ -4909,7 +4909,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:K6" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}" name="표14" displayName="표14" ref="A1:K6" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A1:K6" xr:uid="{4352EE18-3450-4E8B-9F19-9B88EA906D85}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4924,24 +4924,24 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{995BC3CB-DE28-4E03-A75F-24F2B9E2DDD9}" name="number" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{397B5DEA-1726-4F8B-8452-0F85CCCA2E53}" name="stage_name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{8BAEBE59-7DB8-455C-8895-85D16A326CDA}" name="enemy_count" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_health" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_gold" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{995BC3CB-DE28-4E03-A75F-24F2B9E2DDD9}" name="number" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{397B5DEA-1726-4F8B-8452-0F85CCCA2E53}" name="stage_name" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{8BAEBE59-7DB8-455C-8895-85D16A326CDA}" name="enemy_count" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{56F412A6-1D1C-4DD8-8F9F-A9D6D5CB1F01}" name="enemy_unit1" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{E89A1493-B142-49A1-9C5F-0140455DF9CD}" name="enemy_unit2" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{822F2BAA-16F4-4BC6-9BCB-01758A14B4CF}" name="enemy_unit3" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{08FE4F30-2D1A-48D4-B845-F2EF9F32375F}" name="reward_health" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{09318C06-AB06-4E71-AAD3-53C176D856D4}" name="reward_point" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{DC5BC79E-8C2D-4FB9-BF6E-051A19757C96}" name="reward_gold" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{9ACB5939-E1BD-48F3-8490-09A8DF246598}" name="open_item" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{6988D6FA-4BE7-4E74-B798-7FF44AD473F7}" name="image" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J8" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}" name="표3" displayName="표3" ref="A1:J8" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:J8" xr:uid="{E2E5F455-C004-4A3D-BF7D-328FF88528E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4955,39 +4955,39 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{01A3CB60-9284-423A-B95C-C3C9B8807744}" name="state" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="health" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="1" xr3:uid="{38E8F74F-24B3-44C3-8D51-9ED44863F676}" name="id" totalsRowLabel="요약" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{E272DE11-2CFA-438A-8C30-4093EEBAAD4D}" name="name" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{2CF08806-9622-4698-9F29-63005B4ACF6B}" name="name_en" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{494873D0-DE71-4A7C-A5C1-1CD13F2D633F}" name="type" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{01A3CB60-9284-423A-B95C-C3C9B8807744}" name="state" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{354215F0-D267-44D0-B417-9824FD6469DC}" name="health" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{B4511A73-E29D-4385-AE5F-8C007E1D956D}" name="atk" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],2,)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="8" xr3:uid="{C37631EF-1FE2-449B-8ADB-3FC65C48BB02}" name="def" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>VLOOKUP(표3[[#This Row],[name]],표1_8[#All],3,)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{47878641-5549-4C24-8792-3F626D6AFFF8}" name="image" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{2DFA05EF-9697-418B-B5C7-E4A0E66783E9}" name="sound" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="B3:K11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}" name="표16" displayName="표16" ref="B3:K11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B3:K11" xr:uid="{A32CF929-9BAE-487E-AA59-E59A097DB6ED}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{D11EFD70-6973-4140-97D4-CD2907E8D93F}" name="id" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{96652DA7-C7A3-4D7A-AF4E-3D809758DBDF}" name="name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D27CAD10-0AF2-45E2-A350-0DCB9D7368C8}" name="name_en" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{64BCAD89-5438-44B8-8B69-14C0D0BEF66B}" name="type" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{C19525A1-B8C2-4874-A15B-672574DD61B5}" name="currency_t/f" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A479A586-07FB-4AA2-B0B5-C03AB75D9E36}" name="cost" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F9281021-C49C-42D1-82CE-05029A330282}" name="atk" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{6C43432D-E0D5-4413-9A53-FB2C421A4757}" name="openLv" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{21EF1B20-EBAC-4C89-96B6-F5772A012BF6}" name="image" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{A6B16ED6-B5B5-411B-806E-9C7E67E71A47}" name="sound" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5624,30 +5624,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
@@ -5756,10 +5756,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="18"/>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -5813,10 +5813,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5865,10 +5865,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5906,10 +5906,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="18"/>
       <c r="E20" s="14" t="s">
         <v>40</v>
@@ -6033,15 +6033,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6466,7 +6466,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
